--- a/Code/Results/Cases/Case_7_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.99521173137606</v>
+        <v>1.206907427941331</v>
       </c>
       <c r="C2">
-        <v>0.3390224559127546</v>
+        <v>0.09899393160898384</v>
       </c>
       <c r="D2">
-        <v>0.03213796116142031</v>
+        <v>0.06554289105928746</v>
       </c>
       <c r="E2">
-        <v>0.03427265647116684</v>
+        <v>0.07310882483902148</v>
       </c>
       <c r="F2">
-        <v>1.512874667459627</v>
+        <v>0.6061738782151522</v>
       </c>
       <c r="G2">
-        <v>0.0008018262362223882</v>
+        <v>0.0008120722898832298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6814989793070154</v>
+        <v>0.9506198970991022</v>
       </c>
       <c r="L2">
-        <v>0.3137463829440179</v>
+        <v>0.2510297864113653</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9366959065007023</v>
+        <v>0.8698006256390682</v>
       </c>
       <c r="O2">
-        <v>1.183298223495527</v>
+        <v>1.875363517470902</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.604104045502424</v>
+        <v>1.051155895516445</v>
       </c>
       <c r="C3">
-        <v>0.2971741412309399</v>
+        <v>0.09838444202940622</v>
       </c>
       <c r="D3">
-        <v>0.0340884307744016</v>
+        <v>0.06035630326515218</v>
       </c>
       <c r="E3">
-        <v>0.03309644220763808</v>
+        <v>0.06816131226731414</v>
       </c>
       <c r="F3">
-        <v>1.383657431557936</v>
+        <v>0.578003790292172</v>
       </c>
       <c r="G3">
-        <v>0.0008090116813944351</v>
+        <v>0.0008157574499393417</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5896892532243214</v>
+        <v>0.8260005511558859</v>
       </c>
       <c r="L3">
-        <v>0.2756467485388896</v>
+        <v>0.2214268732976166</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9850819989308874</v>
+        <v>0.9127835227999013</v>
       </c>
       <c r="O3">
-        <v>1.092680108846935</v>
+        <v>1.830202620899058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.367318542316355</v>
+        <v>0.9559963266241596</v>
       </c>
       <c r="C4">
-        <v>0.2716538875344554</v>
+        <v>0.09803031689145669</v>
       </c>
       <c r="D4">
-        <v>0.03532051384071222</v>
+        <v>0.05715565066100226</v>
       </c>
       <c r="E4">
-        <v>0.03242748198076484</v>
+        <v>0.06522352685834321</v>
       </c>
       <c r="F4">
-        <v>1.307492386965663</v>
+        <v>0.5617491351675667</v>
       </c>
       <c r="G4">
-        <v>0.0008135505182048185</v>
+        <v>0.0008180981030309065</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5340105024685329</v>
+        <v>0.7496389769032987</v>
       </c>
       <c r="L4">
-        <v>0.2526937730626884</v>
+        <v>0.2034690895041678</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016420168031516</v>
+        <v>0.9403042653658167</v>
       </c>
       <c r="O4">
-        <v>1.039616231593342</v>
+        <v>1.805852247728836</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.271565023621292</v>
+        <v>0.9173206820244957</v>
       </c>
       <c r="C5">
-        <v>0.2612878447398543</v>
+        <v>0.09789102518786663</v>
       </c>
       <c r="D5">
-        <v>0.03583099220174413</v>
+        <v>0.05584712019955163</v>
       </c>
       <c r="E5">
-        <v>0.0321675202236289</v>
+        <v>0.06405021044144732</v>
       </c>
       <c r="F5">
-        <v>1.277184119435461</v>
+        <v>0.5553745361192028</v>
       </c>
       <c r="G5">
-        <v>0.0008154331969518149</v>
+        <v>0.0008190718473360505</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5114709896221612</v>
+        <v>0.7185487574423632</v>
       </c>
       <c r="L5">
-        <v>0.2434389861318067</v>
+        <v>0.1962013368432167</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02958320175609</v>
+        <v>0.9517966521076957</v>
       </c>
       <c r="O5">
-        <v>1.018586102479439</v>
+        <v>1.796741703707156</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.25570689353242</v>
+        <v>0.9109043641637697</v>
       </c>
       <c r="C6">
-        <v>0.2595683192526934</v>
+        <v>0.09786819790875256</v>
       </c>
       <c r="D6">
-        <v>0.03591625627957118</v>
+        <v>0.05562957813515368</v>
       </c>
       <c r="E6">
-        <v>0.03212509675577735</v>
+        <v>0.0638567862504793</v>
       </c>
       <c r="F6">
-        <v>1.272193606598222</v>
+        <v>0.5543307363840881</v>
       </c>
       <c r="G6">
-        <v>0.0008157478434346446</v>
+        <v>0.0008192347480577225</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.507736709533738</v>
+        <v>0.7133876074103824</v>
       </c>
       <c r="L6">
-        <v>0.2419078652142304</v>
+        <v>0.1949974286128082</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.031792141727166</v>
+        <v>0.9537215292182299</v>
       </c>
       <c r="O6">
-        <v>1.015128430017654</v>
+        <v>1.795276920625469</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.366024320422298</v>
+        <v>0.9554743384762219</v>
       </c>
       <c r="C7">
-        <v>0.2715139641460382</v>
+        <v>0.09802841808709672</v>
       </c>
       <c r="D7">
-        <v>0.03532736468339537</v>
+        <v>0.05713802077755048</v>
       </c>
       <c r="E7">
-        <v>0.03242392579064557</v>
+        <v>0.06520760818030169</v>
       </c>
       <c r="F7">
-        <v>1.307080772111817</v>
+        <v>0.5616621720078285</v>
       </c>
       <c r="G7">
-        <v>0.0008135757733155537</v>
+        <v>0.0008181111543469899</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5337059498931964</v>
+        <v>0.7492195854840702</v>
       </c>
       <c r="L7">
-        <v>0.2525685752031706</v>
+        <v>0.203370876957095</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.016596121874763</v>
+        <v>0.9404581405819945</v>
       </c>
       <c r="O7">
-        <v>1.039330275898564</v>
+        <v>1.805726138056627</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.859595143631338</v>
+        <v>1.153096198981359</v>
       </c>
       <c r="C8">
-        <v>0.3245504243811865</v>
+        <v>0.09877958229058592</v>
       </c>
       <c r="D8">
-        <v>0.03280314771651804</v>
+        <v>0.06375776589991489</v>
       </c>
       <c r="E8">
-        <v>0.0338555839628274</v>
+        <v>0.07138136809639306</v>
       </c>
       <c r="F8">
-        <v>1.467618601209125</v>
+        <v>0.5962367581046024</v>
       </c>
       <c r="G8">
-        <v>0.0008042781446966346</v>
+        <v>0.0008133269440676372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.649684040047589</v>
+        <v>0.9076119159668394</v>
       </c>
       <c r="L8">
-        <v>0.3005107238522413</v>
+        <v>0.2407744025132246</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9530306354002533</v>
+        <v>0.8843828194361203</v>
       </c>
       <c r="O8">
-        <v>1.151484688304265</v>
+        <v>1.859067891545976</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.859352000919728</v>
+        <v>1.545170512615726</v>
       </c>
       <c r="C9">
-        <v>0.4304548745384693</v>
+        <v>0.1004142316816115</v>
       </c>
       <c r="D9">
-        <v>0.02814116059866678</v>
+        <v>0.07662167296799538</v>
       </c>
       <c r="E9">
-        <v>0.03712201084046818</v>
+        <v>0.08434348338553121</v>
       </c>
       <c r="F9">
-        <v>1.811020434566402</v>
+        <v>0.6729100064285163</v>
       </c>
       <c r="G9">
-        <v>0.000786996525148575</v>
+        <v>0.0008045489591592843</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8838153985231259</v>
+        <v>1.220004396608715</v>
       </c>
       <c r="L9">
-        <v>0.3986131654259992</v>
+        <v>0.3160861483491715</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8421448346490479</v>
+        <v>0.783680778374384</v>
       </c>
       <c r="O9">
-        <v>1.394524120112308</v>
+        <v>1.992249584775408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.621395578764179</v>
+        <v>1.837183501637156</v>
       </c>
       <c r="C10">
-        <v>0.5102198911885978</v>
+        <v>0.1017172486013749</v>
       </c>
       <c r="D10">
-        <v>0.02491493719243465</v>
+        <v>0.08601691622132535</v>
       </c>
       <c r="E10">
-        <v>0.03985752359824701</v>
+        <v>0.09447972554620421</v>
       </c>
       <c r="F10">
-        <v>2.0859771688162</v>
+        <v>0.7355445814823867</v>
       </c>
       <c r="G10">
-        <v>0.0007747933899352155</v>
+        <v>0.0007984463401322587</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.061775383483052</v>
+        <v>1.451446524608173</v>
       </c>
       <c r="L10">
-        <v>0.4740973948261882</v>
+        <v>0.3729569308391802</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7703594498203756</v>
+        <v>0.7157808240994621</v>
       </c>
       <c r="O10">
-        <v>1.591278242793678</v>
+        <v>2.110131834009195</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.97608856336592</v>
+        <v>1.971170424880455</v>
       </c>
       <c r="C11">
-        <v>0.5471353069533222</v>
+        <v>0.1023330939811444</v>
       </c>
       <c r="D11">
-        <v>0.02349687890868091</v>
+        <v>0.09028267168295656</v>
       </c>
       <c r="E11">
-        <v>0.04118883560448872</v>
+        <v>0.09924568236041154</v>
       </c>
       <c r="F11">
-        <v>2.217302945855479</v>
+        <v>0.765618817806498</v>
       </c>
       <c r="G11">
-        <v>0.0007693275814174672</v>
+        <v>0.0007957403283639633</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.144494725702586</v>
+        <v>1.557354740288929</v>
       </c>
       <c r="L11">
-        <v>0.5094080290367629</v>
+        <v>0.3992443714875122</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7401323505847159</v>
+        <v>0.6863169696826326</v>
       </c>
       <c r="O11">
-        <v>1.685775349645425</v>
+        <v>2.168728690488791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.111749093185495</v>
+        <v>2.022097763709667</v>
       </c>
       <c r="C12">
-        <v>0.5612240382081097</v>
+        <v>0.102569702407969</v>
       </c>
       <c r="D12">
-        <v>0.02296768649521219</v>
+        <v>0.09189713767246133</v>
       </c>
       <c r="E12">
-        <v>0.04170677402096779</v>
+        <v>0.1010746101576636</v>
       </c>
       <c r="F12">
-        <v>2.268055564087604</v>
+        <v>0.7772533439490559</v>
       </c>
       <c r="G12">
-        <v>0.0007672681094482398</v>
+        <v>0.0007947252779110792</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.176116343796011</v>
+        <v>1.59756668296049</v>
       </c>
       <c r="L12">
-        <v>0.5229407712721184</v>
+        <v>0.4092657955831669</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7290667431901099</v>
+        <v>0.6753740478856081</v>
       </c>
       <c r="O12">
-        <v>1.72237507607322</v>
+        <v>2.191687906930326</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.082469035442614</v>
+        <v>2.011120822620967</v>
       </c>
       <c r="C13">
-        <v>0.5581845713834355</v>
+        <v>0.1025185919112488</v>
       </c>
       <c r="D13">
-        <v>0.02308129900185008</v>
+        <v>0.09154946790719265</v>
       </c>
       <c r="E13">
-        <v>0.04159459073086502</v>
+        <v>0.1006796118249369</v>
       </c>
       <c r="F13">
-        <v>2.257077475456811</v>
+        <v>0.7747363862304724</v>
       </c>
       <c r="G13">
-        <v>0.0007677112289313175</v>
+        <v>0.0007949434646839496</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.169292072730585</v>
+        <v>1.588901286622956</v>
       </c>
       <c r="L13">
-        <v>0.5200187065766642</v>
+        <v>0.4071044083022031</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7314324436530981</v>
+        <v>0.6777211065306226</v>
       </c>
       <c r="O13">
-        <v>1.714454709803647</v>
+        <v>2.186708073985358</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.987221290819377</v>
+        <v>1.975356307072389</v>
       </c>
       <c r="C14">
-        <v>0.5482920798386601</v>
+        <v>0.1023524912438987</v>
       </c>
       <c r="D14">
-        <v>0.02345318147198627</v>
+        <v>0.09041551071156562</v>
       </c>
       <c r="E14">
-        <v>0.04123116218698364</v>
+        <v>0.09939565384501137</v>
       </c>
       <c r="F14">
-        <v>2.221457141118535</v>
+        <v>0.7665709544230026</v>
       </c>
       <c r="G14">
-        <v>0.0007691579528056149</v>
+        <v>0.0007956566284951278</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.147090021253035</v>
+        <v>1.560660758412411</v>
       </c>
       <c r="L14">
-        <v>0.5105180096005597</v>
+        <v>0.4000674565083386</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7392141517780715</v>
+        <v>0.6854123347039192</v>
       </c>
       <c r="O14">
-        <v>1.68876948172263</v>
+        <v>2.170601801803571</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.929060615742401</v>
+        <v>1.953474921675223</v>
       </c>
       <c r="C15">
-        <v>0.5422475309010224</v>
+        <v>0.102251195248158</v>
       </c>
       <c r="D15">
-        <v>0.02368200714837254</v>
+        <v>0.0897208232669513</v>
       </c>
       <c r="E15">
-        <v>0.04101038984528138</v>
+        <v>0.09861239733361415</v>
       </c>
       <c r="F15">
-        <v>2.199775734980193</v>
+        <v>0.7616020117101812</v>
       </c>
       <c r="G15">
-        <v>0.0007700453934807304</v>
+        <v>0.0007960947066326439</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.13353076942677</v>
+        <v>1.543377055556732</v>
       </c>
       <c r="L15">
-        <v>0.5047202547901009</v>
+        <v>0.3957660548215927</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7440312559977116</v>
+        <v>0.6901516513509351</v>
       </c>
       <c r="O15">
-        <v>1.673145866686312</v>
+        <v>2.160838198095064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.598393045116211</v>
+        <v>1.828452287914331</v>
       </c>
       <c r="C16">
-        <v>0.5078216367241168</v>
+        <v>0.1016774730400556</v>
       </c>
       <c r="D16">
-        <v>0.02500866265882395</v>
+        <v>0.08573799902489299</v>
       </c>
       <c r="E16">
-        <v>0.03977237623847252</v>
+        <v>0.09417153497625463</v>
       </c>
       <c r="F16">
-        <v>2.077530708045828</v>
+        <v>0.7336125487473311</v>
       </c>
       <c r="G16">
-        <v>0.0007751521488998632</v>
+        <v>0.0007986245593109351</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.056408621117185</v>
+        <v>1.444539161634083</v>
       </c>
       <c r="L16">
-        <v>0.4718111160325122</v>
+        <v>0.3712479586253608</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7723863401502129</v>
+        <v>0.7177358210283398</v>
       </c>
       <c r="O16">
-        <v>1.585211203310863</v>
+        <v>2.106407045977932</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.397726122958204</v>
+        <v>1.752065871131208</v>
       </c>
       <c r="C17">
-        <v>0.4868766713071864</v>
+        <v>0.1013314826072929</v>
       </c>
       <c r="D17">
-        <v>0.02583565963027445</v>
+        <v>0.0832927715378986</v>
       </c>
       <c r="E17">
-        <v>0.03903603851795623</v>
+        <v>0.09148819386901508</v>
       </c>
       <c r="F17">
-        <v>2.004221188477587</v>
+        <v>0.716859854166799</v>
       </c>
       <c r="G17">
-        <v>0.0007783055256327064</v>
+        <v>0.0008001942032276814</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.009578256164247</v>
+        <v>1.384076903782613</v>
       </c>
       <c r="L17">
-        <v>0.4518860696315983</v>
+        <v>0.3563184644145139</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7904245442468394</v>
+        <v>0.7350292177605926</v>
       </c>
       <c r="O17">
-        <v>1.532610973191098</v>
+        <v>2.074326587302551</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.283051543430645</v>
+        <v>1.708237002856976</v>
       </c>
       <c r="C18">
-        <v>0.4748877011857928</v>
+        <v>0.1011346466931116</v>
       </c>
       <c r="D18">
-        <v>0.02631594590242847</v>
+        <v>0.08188555190304925</v>
       </c>
       <c r="E18">
-        <v>0.03862061154232599</v>
+        <v>0.08995926985526026</v>
       </c>
       <c r="F18">
-        <v>1.962635226097177</v>
+        <v>0.707371813021993</v>
       </c>
       <c r="G18">
-        <v>0.0007801274387905233</v>
+        <v>0.0008011036458499338</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9828058394858203</v>
+        <v>1.349358256329197</v>
       </c>
       <c r="L18">
-        <v>0.44051581990702</v>
+        <v>0.347770181773285</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8010261247284518</v>
+        <v>0.7451093606012966</v>
       </c>
       <c r="O18">
-        <v>1.502820164462946</v>
+        <v>2.05633920624021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.244346981247247</v>
+        <v>1.693414895796337</v>
       </c>
       <c r="C19">
-        <v>0.4708378621860163</v>
+        <v>0.1010683716123424</v>
       </c>
       <c r="D19">
-        <v>0.02647933738523878</v>
+        <v>0.08140894727460335</v>
       </c>
       <c r="E19">
-        <v>0.03848130801481275</v>
+        <v>0.08944403100186804</v>
       </c>
       <c r="F19">
-        <v>1.948650948830831</v>
+        <v>0.7041841386931793</v>
       </c>
       <c r="G19">
-        <v>0.0007807457679033236</v>
+        <v>0.0008014127177778099</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9737679281423226</v>
+        <v>1.337612519140748</v>
       </c>
       <c r="L19">
-        <v>0.4366809081292189</v>
+        <v>0.3448823320227348</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8046536346265043</v>
+        <v>0.7485449595195082</v>
       </c>
       <c r="O19">
-        <v>1.49281030820093</v>
+        <v>2.050327143699889</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.41900917552681</v>
+        <v>1.760186135158619</v>
       </c>
       <c r="C20">
-        <v>0.4891001628148501</v>
+        <v>0.1013680888849464</v>
       </c>
       <c r="D20">
-        <v>0.02574714180089321</v>
+        <v>0.08355314981433537</v>
       </c>
       <c r="E20">
-        <v>0.03911357613801414</v>
+        <v>0.09177232999891416</v>
       </c>
       <c r="F20">
-        <v>2.011964257452902</v>
+        <v>0.7186277930817013</v>
       </c>
       <c r="G20">
-        <v>0.0007779690108827794</v>
+        <v>0.0008000264292586181</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.014546239132812</v>
+        <v>1.390507128681946</v>
       </c>
       <c r="L20">
-        <v>0.4539976505387386</v>
+        <v>0.3579036728576739</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7884806898132126</v>
+        <v>0.7331744282232773</v>
       </c>
       <c r="O20">
-        <v>1.538161719341971</v>
+        <v>2.077693151852486</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.015159703873735</v>
+        <v>1.9858558705306</v>
       </c>
       <c r="C21">
-        <v>0.5511946043867511</v>
+        <v>0.1024011860475298</v>
       </c>
       <c r="D21">
-        <v>0.02334373312854798</v>
+        <v>0.09074860294754927</v>
       </c>
       <c r="E21">
-        <v>0.04133752436848503</v>
+        <v>0.09977211200572356</v>
       </c>
       <c r="F21">
-        <v>2.231890887679697</v>
+        <v>0.7689625066148267</v>
       </c>
       <c r="G21">
-        <v>0.0007687327519306027</v>
+        <v>0.0007954468964194421</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.153602849935695</v>
+        <v>1.568952645416914</v>
       </c>
       <c r="L21">
-        <v>0.5133040311186647</v>
+        <v>0.4021325046634701</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7369178722892116</v>
+        <v>0.6831473360371536</v>
       </c>
       <c r="O21">
-        <v>1.696290880814615</v>
+        <v>2.175311254043692</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.412729018101572</v>
+        <v>2.134460540824875</v>
       </c>
       <c r="C22">
-        <v>0.5924267336822027</v>
+        <v>0.1030962431208167</v>
       </c>
       <c r="D22">
-        <v>0.02181879927832275</v>
+        <v>0.09544625166526544</v>
       </c>
       <c r="E22">
-        <v>0.04287214690155849</v>
+        <v>0.1051422397731159</v>
       </c>
       <c r="F22">
-        <v>2.381653434220951</v>
+        <v>0.8033029883133906</v>
       </c>
       <c r="G22">
-        <v>0.0007627553413858553</v>
+        <v>0.0007925099830499485</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.246243233027101</v>
+        <v>1.686208446144065</v>
       </c>
       <c r="L22">
-        <v>0.5530166200071562</v>
+        <v>0.4314323998625582</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7054552816441628</v>
+        <v>0.6517063575473134</v>
       </c>
       <c r="O22">
-        <v>1.804446081586889</v>
+        <v>2.243625908873355</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.199742430961521</v>
+        <v>2.055036823006219</v>
       </c>
       <c r="C23">
-        <v>0.5703539760937701</v>
+        <v>0.10272343127086</v>
       </c>
       <c r="D23">
-        <v>0.0226282405493734</v>
+        <v>0.09293938274921487</v>
       </c>
       <c r="E23">
-        <v>0.04204519724102695</v>
+        <v>0.1022624706941393</v>
       </c>
       <c r="F23">
-        <v>2.301125890042954</v>
+        <v>0.7848362194087173</v>
       </c>
       <c r="G23">
-        <v>0.0007659409104134688</v>
+        <v>0.0007940724844654218</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.196622502892211</v>
+        <v>1.623563083980201</v>
       </c>
       <c r="L23">
-        <v>0.5317263370431249</v>
+        <v>0.4157560121445556</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7220313713729709</v>
+        <v>0.6683688579066782</v>
       </c>
       <c r="O23">
-        <v>1.746246225480633</v>
+        <v>2.206732765470122</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.409384967688084</v>
+        <v>1.756514695549782</v>
       </c>
       <c r="C24">
-        <v>0.4880947599739898</v>
+        <v>0.1013515327183043</v>
       </c>
       <c r="D24">
-        <v>0.0257871457016392</v>
+        <v>0.08343543725845848</v>
       </c>
       <c r="E24">
-        <v>0.03907849685925946</v>
+        <v>0.09164382932219794</v>
       </c>
       <c r="F24">
-        <v>2.008461878849346</v>
+        <v>0.7178280629275307</v>
       </c>
       <c r="G24">
-        <v>0.0007781211210276385</v>
+        <v>0.0008001022579091234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.01229974700199</v>
+        <v>1.387599894740021</v>
       </c>
       <c r="L24">
-        <v>0.453042741884488</v>
+        <v>0.3571868919952692</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7893587886767435</v>
+        <v>0.7340125496439409</v>
       </c>
       <c r="O24">
-        <v>1.535650833338394</v>
+        <v>2.076169711474222</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.584692894127443</v>
+        <v>1.438499915339605</v>
       </c>
       <c r="C25">
-        <v>0.401524119736564</v>
+        <v>0.09995437548295882</v>
       </c>
       <c r="D25">
-        <v>0.02936933454199586</v>
+        <v>0.07315264907801833</v>
       </c>
       <c r="E25">
-        <v>0.03618377135359552</v>
+        <v>0.08073618919791059</v>
       </c>
       <c r="F25">
-        <v>1.714552254548323</v>
+        <v>0.6511289822312776</v>
       </c>
       <c r="G25">
-        <v>0.000791578256918497</v>
+        <v>0.000806861151504615</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.819578830116825</v>
+        <v>1.135219479169308</v>
       </c>
       <c r="L25">
-        <v>0.3715470895428297</v>
+        <v>0.2954680453842684</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8705436445303363</v>
+        <v>0.8098881321384006</v>
       </c>
       <c r="O25">
-        <v>1.325903012689636</v>
+        <v>1.952901010484794</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.206907427941331</v>
+        <v>1.042523364689089</v>
       </c>
       <c r="C2">
-        <v>0.09899393160898384</v>
+        <v>0.1185049814851737</v>
       </c>
       <c r="D2">
-        <v>0.06554289105928746</v>
+        <v>0.07993653093284081</v>
       </c>
       <c r="E2">
-        <v>0.07310882483902148</v>
+        <v>0.09235829419741037</v>
       </c>
       <c r="F2">
-        <v>0.6061738782151522</v>
+        <v>0.3968719641213099</v>
       </c>
       <c r="G2">
-        <v>0.0008120722898832298</v>
+        <v>0.2945645906105909</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.849721397362281E-05</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2732225816903409</v>
       </c>
       <c r="K2">
-        <v>0.9506198970991022</v>
+        <v>0.2980490553291908</v>
       </c>
       <c r="L2">
-        <v>0.2510297864113653</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8815617802706868</v>
       </c>
       <c r="N2">
-        <v>0.8698006256390682</v>
+        <v>0.2849412986110877</v>
       </c>
       <c r="O2">
-        <v>1.875363517470902</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7522034854591411</v>
+      </c>
+      <c r="Q2">
+        <v>1.144796406604968</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051155895516445</v>
+        <v>0.9078908244975992</v>
       </c>
       <c r="C3">
-        <v>0.09838444202940622</v>
+        <v>0.114926476280111</v>
       </c>
       <c r="D3">
-        <v>0.06035630326515218</v>
+        <v>0.07109463761132417</v>
       </c>
       <c r="E3">
-        <v>0.06816131226731414</v>
+        <v>0.08535940431071865</v>
       </c>
       <c r="F3">
-        <v>0.578003790292172</v>
+        <v>0.3781790783637504</v>
       </c>
       <c r="G3">
-        <v>0.0008157574499393417</v>
+        <v>0.284513681907022</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002513941255203322</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2725305340484496</v>
       </c>
       <c r="K3">
-        <v>0.8260005511558859</v>
+        <v>0.2977890951369417</v>
       </c>
       <c r="L3">
-        <v>0.2214268732976166</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7709804543759304</v>
       </c>
       <c r="N3">
-        <v>0.9127835227999013</v>
+        <v>0.2524235897664369</v>
       </c>
       <c r="O3">
-        <v>1.830202620899058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7769612690907195</v>
+      </c>
+      <c r="Q3">
+        <v>1.121774790151434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9559963266241596</v>
+        <v>0.8251547481227135</v>
       </c>
       <c r="C4">
-        <v>0.09803031689145669</v>
+        <v>0.112702986367708</v>
       </c>
       <c r="D4">
-        <v>0.05715565066100226</v>
+        <v>0.06564428076926276</v>
       </c>
       <c r="E4">
-        <v>0.06522352685834321</v>
+        <v>0.08105271789112933</v>
       </c>
       <c r="F4">
-        <v>0.5617491351675667</v>
+        <v>0.3672309932079827</v>
       </c>
       <c r="G4">
-        <v>0.0008180981030309065</v>
+        <v>0.2787887177773953</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0005389993485015454</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2724038161719804</v>
       </c>
       <c r="K4">
-        <v>0.7496389769032987</v>
+        <v>0.297991512856516</v>
       </c>
       <c r="L4">
-        <v>0.2034690895041678</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.702944861365296</v>
       </c>
       <c r="N4">
-        <v>0.9403042653658167</v>
+        <v>0.23243897905175</v>
       </c>
       <c r="O4">
-        <v>1.805852247728836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.792806969835647</v>
+      </c>
+      <c r="Q4">
+        <v>1.109202859350376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9173206820244957</v>
+        <v>0.7914166152739313</v>
       </c>
       <c r="C5">
-        <v>0.09789102518786663</v>
+        <v>0.1117900490266059</v>
       </c>
       <c r="D5">
-        <v>0.05584712019955163</v>
+        <v>0.06341748757444776</v>
       </c>
       <c r="E5">
-        <v>0.06405021044144732</v>
+        <v>0.07929489740118001</v>
       </c>
       <c r="F5">
-        <v>0.5553745361192028</v>
+        <v>0.3628972174582117</v>
       </c>
       <c r="G5">
-        <v>0.0008190718473360505</v>
+        <v>0.2765632983571251</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0006908357124595366</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2724251298940459</v>
       </c>
       <c r="K5">
-        <v>0.7185487574423632</v>
+        <v>0.2981622828124451</v>
       </c>
       <c r="L5">
-        <v>0.1962013368432167</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.675181352159683</v>
       </c>
       <c r="N5">
-        <v>0.9517966521076957</v>
+        <v>0.2242888544191572</v>
       </c>
       <c r="O5">
-        <v>1.796741703707156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7994229860072402</v>
+      </c>
+      <c r="Q5">
+        <v>1.104458636550802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9109043641637697</v>
+        <v>0.7858129347928013</v>
       </c>
       <c r="C6">
-        <v>0.09786819790875256</v>
+        <v>0.1116380361957567</v>
       </c>
       <c r="D6">
-        <v>0.05562957813515368</v>
+        <v>0.06304737439091213</v>
       </c>
       <c r="E6">
-        <v>0.0638567862504793</v>
+        <v>0.07900282970364358</v>
       </c>
       <c r="F6">
-        <v>0.5543307363840881</v>
+        <v>0.3621851513427288</v>
       </c>
       <c r="G6">
-        <v>0.0008192347480577225</v>
+        <v>0.276200131175969</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0007180902532738509</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2724330171450902</v>
       </c>
       <c r="K6">
-        <v>0.7133876074103824</v>
+        <v>0.2981958924195389</v>
       </c>
       <c r="L6">
-        <v>0.1949974286128082</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6705688165459662</v>
       </c>
       <c r="N6">
-        <v>0.9537215292182299</v>
+        <v>0.2229351117625811</v>
       </c>
       <c r="O6">
-        <v>1.795276920625469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8005310666405627</v>
+      </c>
+      <c r="Q6">
+        <v>1.103693343820083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9554743384762219</v>
+        <v>0.8246998409162245</v>
       </c>
       <c r="C7">
-        <v>0.09802841808709672</v>
+        <v>0.1126907022062085</v>
       </c>
       <c r="D7">
-        <v>0.05713802077755048</v>
+        <v>0.06561427310168</v>
       </c>
       <c r="E7">
-        <v>0.06520760818030169</v>
+        <v>0.08102902328878514</v>
       </c>
       <c r="F7">
-        <v>0.5616621720078285</v>
+        <v>0.3671720365946811</v>
       </c>
       <c r="G7">
-        <v>0.0008181111543469899</v>
+        <v>0.2787582755930629</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0005409090800270189</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2724038108657751</v>
       </c>
       <c r="K7">
-        <v>0.7492195854840702</v>
+        <v>0.2979934620325864</v>
       </c>
       <c r="L7">
-        <v>0.203370876957095</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7025705933888702</v>
       </c>
       <c r="N7">
-        <v>0.9404581405819945</v>
+        <v>0.2323290908687881</v>
       </c>
       <c r="O7">
-        <v>1.805726138056627</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7928955571175678</v>
+      </c>
+      <c r="Q7">
+        <v>1.109137361164059</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.153096198981359</v>
+        <v>0.9961139302792503</v>
       </c>
       <c r="C8">
-        <v>0.09877958229058592</v>
+        <v>0.1172764153182939</v>
       </c>
       <c r="D8">
-        <v>0.06375776589991489</v>
+        <v>0.07689207129998721</v>
       </c>
       <c r="E8">
-        <v>0.07138136809639306</v>
+        <v>0.08994672999868314</v>
       </c>
       <c r="F8">
-        <v>0.5962367581046024</v>
+        <v>0.390313416637774</v>
       </c>
       <c r="G8">
-        <v>0.0008133269440676372</v>
+        <v>0.2910035251919325</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>6.773344140209581E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2729208239883505</v>
       </c>
       <c r="K8">
-        <v>0.9076119159668394</v>
+        <v>0.2978825934471629</v>
       </c>
       <c r="L8">
-        <v>0.2407744025132246</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8434596965566925</v>
       </c>
       <c r="N8">
-        <v>0.8843828194361203</v>
+        <v>0.2737320893015465</v>
       </c>
       <c r="O8">
-        <v>1.859067891545976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7606042472881995</v>
+      </c>
+      <c r="Q8">
+        <v>1.136525348159708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.545170512615726</v>
+        <v>1.331929609496399</v>
       </c>
       <c r="C9">
-        <v>0.1004142316816115</v>
+        <v>0.1260725382933785</v>
       </c>
       <c r="D9">
-        <v>0.07662167296799538</v>
+        <v>0.09885535873286244</v>
       </c>
       <c r="E9">
-        <v>0.08434348338553121</v>
+        <v>0.1073826453735904</v>
       </c>
       <c r="F9">
-        <v>0.6729100064285163</v>
+        <v>0.4401528475672336</v>
       </c>
       <c r="G9">
-        <v>0.0008045489591592843</v>
+        <v>0.3187786389037299</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0003671359343342395</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2763964745927154</v>
       </c>
       <c r="K9">
-        <v>1.220004396608715</v>
+        <v>0.3006667719084035</v>
       </c>
       <c r="L9">
-        <v>0.3160861483491715</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.118837401809998</v>
       </c>
       <c r="N9">
-        <v>0.783680778374384</v>
+        <v>0.3548525665598135</v>
       </c>
       <c r="O9">
-        <v>1.992249584775408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.7025441534458032</v>
+      </c>
+      <c r="Q9">
+        <v>1.203307052302478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.837183501637156</v>
+        <v>1.569238813422146</v>
       </c>
       <c r="C10">
-        <v>0.1017172486013749</v>
+        <v>0.1338894525197105</v>
       </c>
       <c r="D10">
-        <v>0.08601691622132535</v>
+        <v>0.1157702481401373</v>
       </c>
       <c r="E10">
-        <v>0.09447972554620421</v>
+        <v>0.1149436707895433</v>
       </c>
       <c r="F10">
-        <v>0.7355445814823867</v>
+        <v>0.4753301541599413</v>
       </c>
       <c r="G10">
-        <v>0.0007984463401322587</v>
+        <v>0.3374641678550816</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001542094179988407</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2784175494041179</v>
       </c>
       <c r="K10">
-        <v>1.451446524608173</v>
+        <v>0.3010266484787323</v>
       </c>
       <c r="L10">
-        <v>0.3729569308391802</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.319822278299483</v>
       </c>
       <c r="N10">
-        <v>0.7157808240994621</v>
+        <v>0.3966889511351184</v>
       </c>
       <c r="O10">
-        <v>2.110131834009195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6647922784289584</v>
+      </c>
+      <c r="Q10">
+        <v>1.247570889698636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.971170424880455</v>
+        <v>1.593507969329011</v>
       </c>
       <c r="C11">
-        <v>0.1023330939811444</v>
+        <v>0.1521245950387993</v>
       </c>
       <c r="D11">
-        <v>0.09028267168295656</v>
+        <v>0.1311230357228936</v>
       </c>
       <c r="E11">
-        <v>0.09924568236041154</v>
+        <v>0.07925744083836861</v>
       </c>
       <c r="F11">
-        <v>0.765618817806498</v>
+        <v>0.4528798884432632</v>
       </c>
       <c r="G11">
-        <v>0.0007957403283639633</v>
+        <v>0.3095820033573631</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02000735376330809</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.261090485024404</v>
       </c>
       <c r="K11">
-        <v>1.557354740288929</v>
+        <v>0.2706253717994223</v>
       </c>
       <c r="L11">
-        <v>0.3992443714875122</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.401784477063103</v>
       </c>
       <c r="N11">
-        <v>0.6863169696826326</v>
+        <v>0.27568508932697</v>
       </c>
       <c r="O11">
-        <v>2.168728690488791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6646914642534192</v>
+      </c>
+      <c r="Q11">
+        <v>1.152336336466135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.022097763709667</v>
+        <v>1.562960805081758</v>
       </c>
       <c r="C12">
-        <v>0.102569702407969</v>
+        <v>0.1686222968009616</v>
       </c>
       <c r="D12">
-        <v>0.09189713767246133</v>
+        <v>0.1409560813397661</v>
       </c>
       <c r="E12">
-        <v>0.1010746101576636</v>
+        <v>0.05623191431826413</v>
       </c>
       <c r="F12">
-        <v>0.7772533439490559</v>
+        <v>0.4263642287916483</v>
       </c>
       <c r="G12">
-        <v>0.0007947252779110792</v>
+        <v>0.2826191224225667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05849742703016858</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2461385668255573</v>
       </c>
       <c r="K12">
-        <v>1.59756668296049</v>
+        <v>0.246091368948484</v>
       </c>
       <c r="L12">
-        <v>0.4092657955831669</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.428372645815699</v>
       </c>
       <c r="N12">
-        <v>0.6753740478856081</v>
+        <v>0.1846257483784655</v>
       </c>
       <c r="O12">
-        <v>2.191687906930326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6766466124575743</v>
+      </c>
+      <c r="Q12">
+        <v>1.063917745901009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.011120822620967</v>
+        <v>1.488692222477283</v>
       </c>
       <c r="C13">
-        <v>0.1025185919112488</v>
+        <v>0.1844675844355237</v>
       </c>
       <c r="D13">
-        <v>0.09154946790719265</v>
+        <v>0.1470063076537969</v>
       </c>
       <c r="E13">
-        <v>0.1006796118249369</v>
+        <v>0.04156045692916965</v>
       </c>
       <c r="F13">
-        <v>0.7747363862304724</v>
+        <v>0.3950590328805959</v>
       </c>
       <c r="G13">
-        <v>0.0007949434646839496</v>
+        <v>0.2546970467903407</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1139768757964248</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2320615118865561</v>
       </c>
       <c r="K13">
-        <v>1.588901286622956</v>
+        <v>0.2245343951013758</v>
       </c>
       <c r="L13">
-        <v>0.4071044083022031</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.413632925745532</v>
       </c>
       <c r="N13">
-        <v>0.6777211065306226</v>
+        <v>0.1116152875725618</v>
       </c>
       <c r="O13">
-        <v>2.186708073985358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6976696233810245</v>
+      </c>
+      <c r="Q13">
+        <v>0.9752180063015174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.975356307072389</v>
+        <v>1.417302274305456</v>
       </c>
       <c r="C14">
-        <v>0.1023524912438987</v>
+        <v>0.1954481878088501</v>
       </c>
       <c r="D14">
-        <v>0.09041551071156562</v>
+        <v>0.1495261662576439</v>
       </c>
       <c r="E14">
-        <v>0.09939565384501137</v>
+        <v>0.03625063780223514</v>
       </c>
       <c r="F14">
-        <v>0.7665709544230026</v>
+        <v>0.3711732486998969</v>
       </c>
       <c r="G14">
-        <v>0.0007956566284951278</v>
+        <v>0.2349643868628775</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.163113320968975</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2226997897037961</v>
       </c>
       <c r="K14">
-        <v>1.560660758412411</v>
+        <v>0.2110594811586246</v>
       </c>
       <c r="L14">
-        <v>0.4000674565083386</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.38462693897938</v>
       </c>
       <c r="N14">
-        <v>0.6854123347039192</v>
+        <v>0.07172017693235233</v>
       </c>
       <c r="O14">
-        <v>2.170601801803571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7166624820688696</v>
+      </c>
+      <c r="Q14">
+        <v>0.9137254699772086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.953474921675223</v>
+        <v>1.390842189771575</v>
       </c>
       <c r="C15">
-        <v>0.102251195248158</v>
+        <v>0.1975731194781076</v>
       </c>
       <c r="D15">
-        <v>0.0897208232669513</v>
+        <v>0.1492577890489173</v>
       </c>
       <c r="E15">
-        <v>0.09861239733361415</v>
+        <v>0.03560804707270132</v>
       </c>
       <c r="F15">
-        <v>0.7616020117101812</v>
+        <v>0.3643823728684481</v>
       </c>
       <c r="G15">
-        <v>0.0007960947066326439</v>
+        <v>0.2299102775879192</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1755333380150006</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2206010198274271</v>
       </c>
       <c r="K15">
-        <v>1.543377055556732</v>
+        <v>0.2082651505744764</v>
       </c>
       <c r="L15">
-        <v>0.3957660548215927</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.368774547338518</v>
       </c>
       <c r="N15">
-        <v>0.6901516513509351</v>
+        <v>0.06335524260945036</v>
       </c>
       <c r="O15">
-        <v>2.160838198095064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7225564640562965</v>
+      </c>
+      <c r="Q15">
+        <v>0.8985843472059969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.828452287914331</v>
+        <v>1.305588183348902</v>
       </c>
       <c r="C16">
-        <v>0.1016774730400556</v>
+        <v>0.1902745180478149</v>
       </c>
       <c r="D16">
-        <v>0.08573799902489299</v>
+        <v>0.1404886616232233</v>
       </c>
       <c r="E16">
-        <v>0.09417153497625463</v>
+        <v>0.03565542549768197</v>
       </c>
       <c r="F16">
-        <v>0.7336125487473311</v>
+        <v>0.3555419582767669</v>
       </c>
       <c r="G16">
-        <v>0.0007986245593109351</v>
+        <v>0.2274913084936401</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1623505719706202</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2224426114964899</v>
       </c>
       <c r="K16">
-        <v>1.444539161634083</v>
+        <v>0.2123372782085227</v>
       </c>
       <c r="L16">
-        <v>0.3712479586253608</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.285238280184871</v>
       </c>
       <c r="N16">
-        <v>0.7177358210283398</v>
+        <v>0.06236832409754101</v>
       </c>
       <c r="O16">
-        <v>2.106407045977932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7319342032376213</v>
+      </c>
+      <c r="Q16">
+        <v>0.8971383712260916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.752065871131208</v>
+        <v>1.277971506483425</v>
       </c>
       <c r="C17">
-        <v>0.1013314826072929</v>
+        <v>0.1787578009484605</v>
       </c>
       <c r="D17">
-        <v>0.0832927715378986</v>
+        <v>0.1324470513923472</v>
       </c>
       <c r="E17">
-        <v>0.09148819386901508</v>
+        <v>0.0376957040560808</v>
       </c>
       <c r="F17">
-        <v>0.716859854166799</v>
+        <v>0.3615119239721878</v>
       </c>
       <c r="G17">
-        <v>0.0008001942032276814</v>
+        <v>0.2361155598354898</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1243456734043775</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.228864787042582</v>
       </c>
       <c r="K17">
-        <v>1.384076903782613</v>
+        <v>0.2225711359534337</v>
       </c>
       <c r="L17">
-        <v>0.3563184644145139</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.236703412127355</v>
       </c>
       <c r="N17">
-        <v>0.7350292177605926</v>
+        <v>0.08064498964535716</v>
       </c>
       <c r="O17">
-        <v>2.074326587302551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.7292540840737587</v>
+      </c>
+      <c r="Q17">
+        <v>0.9287658955727238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.708237002856976</v>
+        <v>1.296609332011911</v>
       </c>
       <c r="C18">
-        <v>0.1011346466931116</v>
+        <v>0.1635200475910352</v>
       </c>
       <c r="D18">
-        <v>0.08188555190304925</v>
+        <v>0.1242774987149318</v>
       </c>
       <c r="E18">
-        <v>0.08995926985526026</v>
+        <v>0.04595690980379441</v>
       </c>
       <c r="F18">
-        <v>0.707371813021993</v>
+        <v>0.3809097717649053</v>
       </c>
       <c r="G18">
-        <v>0.0008011036458499338</v>
+        <v>0.2555503351213417</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07149059618551945</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2400452760142926</v>
       </c>
       <c r="K18">
-        <v>1.349358256329197</v>
+        <v>0.2399244702658763</v>
       </c>
       <c r="L18">
-        <v>0.347770181773285</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.212599798854342</v>
       </c>
       <c r="N18">
-        <v>0.7451093606012966</v>
+        <v>0.1275981555115706</v>
       </c>
       <c r="O18">
-        <v>2.05633920624021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7176351338675673</v>
+      </c>
+      <c r="Q18">
+        <v>0.9933278784750996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.693414895796337</v>
+        <v>1.351369565086657</v>
       </c>
       <c r="C19">
-        <v>0.1010683716123424</v>
+        <v>0.1480834264685242</v>
       </c>
       <c r="D19">
-        <v>0.08140894727460335</v>
+        <v>0.1168043101588125</v>
       </c>
       <c r="E19">
-        <v>0.08944403100186804</v>
+        <v>0.06503905051290992</v>
       </c>
       <c r="F19">
-        <v>0.7041841386931793</v>
+        <v>0.410059196399942</v>
       </c>
       <c r="G19">
-        <v>0.0008014127177778099</v>
+        <v>0.2830422175695233</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02643454845030391</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2545148334566818</v>
       </c>
       <c r="K19">
-        <v>1.337612519140748</v>
+        <v>0.2628956310195925</v>
       </c>
       <c r="L19">
-        <v>0.3448823320227348</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.209826041272578</v>
       </c>
       <c r="N19">
-        <v>0.7485449595195082</v>
+        <v>0.2095312955694908</v>
       </c>
       <c r="O19">
-        <v>2.050327143699889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7021256120285599</v>
+      </c>
+      <c r="Q19">
+        <v>1.081906866797681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.760186135158619</v>
+        <v>1.5065258242239</v>
       </c>
       <c r="C20">
-        <v>0.1013680888849464</v>
+        <v>0.1318942033271711</v>
       </c>
       <c r="D20">
-        <v>0.08355314981433537</v>
+        <v>0.1113652548399671</v>
       </c>
       <c r="E20">
-        <v>0.09177232999891416</v>
+        <v>0.1127335951523953</v>
       </c>
       <c r="F20">
-        <v>0.7186277930817013</v>
+        <v>0.4656811108795154</v>
       </c>
       <c r="G20">
-        <v>0.0008000264292586181</v>
+        <v>0.3321868433855144</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001153836509170336</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.277678379620987</v>
       </c>
       <c r="K20">
-        <v>1.390507128681946</v>
+        <v>0.3006307297909672</v>
       </c>
       <c r="L20">
-        <v>0.3579036728576739</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.267015129810858</v>
       </c>
       <c r="N20">
-        <v>0.7331744282232773</v>
+        <v>0.3849557007597326</v>
       </c>
       <c r="O20">
-        <v>2.077693151852486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6744942223009147</v>
+      </c>
+      <c r="Q20">
+        <v>1.234727312140862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.9858558705306</v>
+        <v>1.703568564426206</v>
       </c>
       <c r="C21">
-        <v>0.1024011860475298</v>
+        <v>0.1356240480019864</v>
       </c>
       <c r="D21">
-        <v>0.09074860294754927</v>
+        <v>0.1230256013980977</v>
       </c>
       <c r="E21">
-        <v>0.09977211200572356</v>
+        <v>0.12666976040639</v>
       </c>
       <c r="F21">
-        <v>0.7689625066148267</v>
+        <v>0.500774885664768</v>
       </c>
       <c r="G21">
-        <v>0.0007954468964194421</v>
+        <v>0.3541516888024319</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002239572937519085</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2831501529056908</v>
       </c>
       <c r="K21">
-        <v>1.568952645416914</v>
+        <v>0.3073286533310409</v>
       </c>
       <c r="L21">
-        <v>0.4021325046634701</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.422901278148458</v>
       </c>
       <c r="N21">
-        <v>0.6831473360371536</v>
+        <v>0.4446887495626015</v>
       </c>
       <c r="O21">
-        <v>2.175311254043692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6444196209491757</v>
+      </c>
+      <c r="Q21">
+        <v>1.293066393286381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.134460540824875</v>
+        <v>1.827634025661354</v>
       </c>
       <c r="C22">
-        <v>0.1030962431208167</v>
+        <v>0.1387847102540007</v>
       </c>
       <c r="D22">
-        <v>0.09544625166526544</v>
+        <v>0.1310713689597094</v>
       </c>
       <c r="E22">
-        <v>0.1051422397731159</v>
+        <v>0.1331122540459475</v>
       </c>
       <c r="F22">
-        <v>0.8033029883133906</v>
+        <v>0.5220882482496876</v>
       </c>
       <c r="G22">
-        <v>0.0007925099830499485</v>
+        <v>0.3668798551560712</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003176490041839286</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2859631609711357</v>
       </c>
       <c r="K22">
-        <v>1.686208446144065</v>
+        <v>0.3102467080497604</v>
       </c>
       <c r="L22">
-        <v>0.4314323998625582</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.524287093775484</v>
       </c>
       <c r="N22">
-        <v>0.6517063575473134</v>
+        <v>0.4746994945532919</v>
       </c>
       <c r="O22">
-        <v>2.243625908873355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6261916388317026</v>
+      </c>
+      <c r="Q22">
+        <v>1.326139087307183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.055036823006219</v>
+        <v>1.761401430254153</v>
       </c>
       <c r="C23">
-        <v>0.10272343127086</v>
+        <v>0.1370987761243967</v>
       </c>
       <c r="D23">
-        <v>0.09293938274921487</v>
+        <v>0.1267773608680898</v>
       </c>
       <c r="E23">
-        <v>0.1022624706941393</v>
+        <v>0.1296725475034215</v>
       </c>
       <c r="F23">
-        <v>0.7848362194087173</v>
+        <v>0.5106477245312817</v>
       </c>
       <c r="G23">
-        <v>0.0007940724844654218</v>
+        <v>0.3600314037474419</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002658019626006869</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2844294370266738</v>
       </c>
       <c r="K23">
-        <v>1.623563083980201</v>
+        <v>0.3086489601598466</v>
       </c>
       <c r="L23">
-        <v>0.4157560121445556</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.470168652191063</v>
       </c>
       <c r="N23">
-        <v>0.6683688579066782</v>
+        <v>0.4586768062024191</v>
       </c>
       <c r="O23">
-        <v>2.206732765470122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.6358553374765492</v>
+      </c>
+      <c r="Q23">
+        <v>1.308303333646393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.756514695549782</v>
+        <v>1.510877234435668</v>
       </c>
       <c r="C24">
-        <v>0.1013515327183043</v>
+        <v>0.1306898791741702</v>
       </c>
       <c r="D24">
-        <v>0.08343543725845848</v>
+        <v>0.110507926954412</v>
       </c>
       <c r="E24">
-        <v>0.09164382932219794</v>
+        <v>0.1166683971611953</v>
       </c>
       <c r="F24">
-        <v>0.7178280629275307</v>
+        <v>0.4687057707732123</v>
       </c>
       <c r="G24">
-        <v>0.0008001022579091234</v>
+        <v>0.3352679754023029</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001085677535488494</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.279314981725129</v>
       </c>
       <c r="K24">
-        <v>1.387599894740021</v>
+        <v>0.3034613075623902</v>
       </c>
       <c r="L24">
-        <v>0.3571868919952692</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.265321619415801</v>
       </c>
       <c r="N24">
-        <v>0.7340125496439409</v>
+        <v>0.3980989740078371</v>
       </c>
       <c r="O24">
-        <v>2.076169711474222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6738542259806515</v>
+      </c>
+      <c r="Q24">
+        <v>1.244683859512676</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.438499915339605</v>
+        <v>1.241080345143246</v>
       </c>
       <c r="C25">
-        <v>0.09995437548295882</v>
+        <v>0.123712159234266</v>
       </c>
       <c r="D25">
-        <v>0.07315264907801833</v>
+        <v>0.09292736167379445</v>
       </c>
       <c r="E25">
-        <v>0.08073618919791059</v>
+        <v>0.1026679361515548</v>
       </c>
       <c r="F25">
-        <v>0.6511289822312776</v>
+        <v>0.4261547152151977</v>
       </c>
       <c r="G25">
-        <v>0.000806861151504615</v>
+        <v>0.3108297452204951</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001432344672538388</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2751787249681712</v>
       </c>
       <c r="K25">
-        <v>1.135219479169308</v>
+        <v>0.2995734974006297</v>
       </c>
       <c r="L25">
-        <v>0.2954680453842684</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.04440735744231</v>
       </c>
       <c r="N25">
-        <v>0.8098881321384006</v>
+        <v>0.3329031601372634</v>
       </c>
       <c r="O25">
-        <v>1.952901010484794</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7176659492466015</v>
+      </c>
+      <c r="Q25">
+        <v>1.183743615072274</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.042523364689089</v>
+        <v>1.007032710918082</v>
       </c>
       <c r="C2">
-        <v>0.1185049814851737</v>
+        <v>0.1135832462649589</v>
       </c>
       <c r="D2">
-        <v>0.07993653093284081</v>
+        <v>0.08235208336337507</v>
       </c>
       <c r="E2">
-        <v>0.09235829419741037</v>
+        <v>0.087860743972211</v>
       </c>
       <c r="F2">
-        <v>0.3968719641213099</v>
+        <v>0.3785571150973084</v>
       </c>
       <c r="G2">
-        <v>0.2945645906105909</v>
+        <v>0.2590297564599737</v>
       </c>
       <c r="H2">
-        <v>1.849721397362281E-05</v>
+        <v>1.547499369536354E-06</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2732225816903409</v>
+        <v>0.2975460465340234</v>
       </c>
       <c r="K2">
-        <v>0.2980490553291908</v>
+        <v>0.275534336283588</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1495656936429839</v>
       </c>
       <c r="M2">
-        <v>0.8815617802706868</v>
+        <v>0.0670517936403261</v>
       </c>
       <c r="N2">
-        <v>0.2849412986110877</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.8832458636258025</v>
       </c>
       <c r="P2">
-        <v>0.7522034854591411</v>
+        <v>0.2914448718268261</v>
       </c>
       <c r="Q2">
-        <v>1.144796406604968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7443915678930395</v>
+      </c>
+      <c r="S2">
+        <v>1.085193652221264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9078908244975992</v>
+        <v>0.8807145530535081</v>
       </c>
       <c r="C3">
-        <v>0.114926476280111</v>
+        <v>0.1074790406618717</v>
       </c>
       <c r="D3">
-        <v>0.07109463761132417</v>
+        <v>0.07280408849089781</v>
       </c>
       <c r="E3">
-        <v>0.08535940431071865</v>
+        <v>0.08160310700348816</v>
       </c>
       <c r="F3">
-        <v>0.3781790783637504</v>
+        <v>0.3622009019236074</v>
       </c>
       <c r="G3">
-        <v>0.284513681907022</v>
+        <v>0.2515881818932257</v>
       </c>
       <c r="H3">
-        <v>0.0002513941255203322</v>
+        <v>0.0001435847326454187</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2725305340484496</v>
+        <v>0.2957704087128263</v>
       </c>
       <c r="K3">
-        <v>0.2977890951369417</v>
+        <v>0.2767326917533453</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1540437206215941</v>
       </c>
       <c r="M3">
-        <v>0.7709804543759304</v>
+        <v>0.06474613575550059</v>
       </c>
       <c r="N3">
-        <v>0.2524235897664369</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.7727706094689779</v>
       </c>
       <c r="P3">
-        <v>0.7769612690907195</v>
+        <v>0.2584887960639293</v>
       </c>
       <c r="Q3">
-        <v>1.121774790151434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.765569158428459</v>
+      </c>
+      <c r="S3">
+        <v>1.068255539147387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8251547481227135</v>
+        <v>0.8029015019010046</v>
       </c>
       <c r="C4">
-        <v>0.112702986367708</v>
+        <v>0.1037391611328573</v>
       </c>
       <c r="D4">
-        <v>0.06564428076926276</v>
+        <v>0.06693070575948923</v>
       </c>
       <c r="E4">
-        <v>0.08105271789112933</v>
+        <v>0.07774180140909337</v>
       </c>
       <c r="F4">
-        <v>0.3672309932079827</v>
+        <v>0.3525948255976346</v>
       </c>
       <c r="G4">
-        <v>0.2787887177773953</v>
+        <v>0.2474528878464284</v>
       </c>
       <c r="H4">
-        <v>0.0005389993485015454</v>
+        <v>0.0003544359231384409</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2724038161719804</v>
+        <v>0.2948322033400146</v>
       </c>
       <c r="K4">
-        <v>0.297991512856516</v>
+        <v>0.2777435318602386</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.156947562285854</v>
       </c>
       <c r="M4">
-        <v>0.702944861365296</v>
+        <v>0.06388864496425306</v>
       </c>
       <c r="N4">
-        <v>0.23243897905175</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7047787507037668</v>
       </c>
       <c r="P4">
-        <v>0.792806969835647</v>
+        <v>0.2382475304427913</v>
       </c>
       <c r="Q4">
-        <v>1.109202859350376</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7792156394037981</v>
+      </c>
+      <c r="S4">
+        <v>1.059127451282933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7914166152739313</v>
+        <v>0.7711251062541749</v>
       </c>
       <c r="C5">
-        <v>0.1117900490266059</v>
+        <v>0.102216820846003</v>
       </c>
       <c r="D5">
-        <v>0.06341748757444776</v>
+        <v>0.06453416188168148</v>
       </c>
       <c r="E5">
-        <v>0.07929489740118001</v>
+        <v>0.07616311204212778</v>
       </c>
       <c r="F5">
-        <v>0.3628972174582117</v>
+        <v>0.3487853273689225</v>
       </c>
       <c r="G5">
-        <v>0.2765632983571251</v>
+        <v>0.2458718600800509</v>
       </c>
       <c r="H5">
-        <v>0.0006908357124595366</v>
+        <v>0.000469976534122285</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2724251298940459</v>
+        <v>0.2944871588686269</v>
       </c>
       <c r="K5">
-        <v>0.2981622828124451</v>
+        <v>0.2782224394316088</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1581696805714117</v>
       </c>
       <c r="M5">
-        <v>0.675181352159683</v>
+        <v>0.06367822969898818</v>
       </c>
       <c r="N5">
-        <v>0.2242888544191572</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6770284974536906</v>
       </c>
       <c r="P5">
-        <v>0.7994229860072402</v>
+        <v>0.2299961936024744</v>
       </c>
       <c r="Q5">
-        <v>1.104458636550802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7849356024756169</v>
+      </c>
+      <c r="S5">
+        <v>1.05571547546586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7858129347928013</v>
+        <v>0.7658445249206807</v>
       </c>
       <c r="C6">
-        <v>0.1116380361957567</v>
+        <v>0.1019641297043208</v>
       </c>
       <c r="D6">
-        <v>0.06304737439091213</v>
+        <v>0.06413602063368273</v>
       </c>
       <c r="E6">
-        <v>0.07900282970364358</v>
+        <v>0.0759006485432927</v>
       </c>
       <c r="F6">
-        <v>0.3621851513427288</v>
+        <v>0.3481589721796752</v>
       </c>
       <c r="G6">
-        <v>0.276200131175969</v>
+        <v>0.2456154794162941</v>
       </c>
       <c r="H6">
-        <v>0.0007180902532738509</v>
+        <v>0.0004909083769354394</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2724330171450902</v>
+        <v>0.2944320891034593</v>
       </c>
       <c r="K6">
-        <v>0.2981958924195389</v>
+        <v>0.2783059447743241</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1583749539717516</v>
       </c>
       <c r="M6">
-        <v>0.6705688165459662</v>
+        <v>0.06365164886949692</v>
       </c>
       <c r="N6">
-        <v>0.2229351117625811</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.672417910420009</v>
       </c>
       <c r="P6">
-        <v>0.8005310666405627</v>
+        <v>0.228625855342429</v>
       </c>
       <c r="Q6">
-        <v>1.103693343820083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7858949141958647</v>
+      </c>
+      <c r="S6">
+        <v>1.055167164804075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8246998409162245</v>
+        <v>0.8020847499393255</v>
       </c>
       <c r="C7">
-        <v>0.1126907022062085</v>
+        <v>0.1036098932314857</v>
       </c>
       <c r="D7">
-        <v>0.06561427310168</v>
+        <v>0.06700496826832847</v>
       </c>
       <c r="E7">
-        <v>0.08102902328878514</v>
+        <v>0.07774915645114788</v>
       </c>
       <c r="F7">
-        <v>0.3671720365946811</v>
+        <v>0.3519702090474084</v>
       </c>
       <c r="G7">
-        <v>0.2787582755930629</v>
+        <v>0.2497303086818263</v>
       </c>
       <c r="H7">
-        <v>0.0005409090800270189</v>
+        <v>0.0003569508205674143</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2724038108657751</v>
+        <v>0.2915199969482458</v>
       </c>
       <c r="K7">
-        <v>0.2979934620325864</v>
+        <v>0.2774570824967171</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1568142248432522</v>
       </c>
       <c r="M7">
-        <v>0.7025705933888702</v>
+        <v>0.06381241561060591</v>
       </c>
       <c r="N7">
-        <v>0.2323290908687881</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7037666905680595</v>
       </c>
       <c r="P7">
-        <v>0.7928955571175678</v>
+        <v>0.2380774488501203</v>
       </c>
       <c r="Q7">
-        <v>1.109137361164059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7794032911140683</v>
+      </c>
+      <c r="S7">
+        <v>1.05733973195909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9961139302792503</v>
+        <v>0.9622263937298783</v>
       </c>
       <c r="C8">
-        <v>0.1172764153182939</v>
+        <v>0.111105577883265</v>
       </c>
       <c r="D8">
-        <v>0.07689207129998721</v>
+        <v>0.07942164304681398</v>
       </c>
       <c r="E8">
-        <v>0.08994672999868314</v>
+        <v>0.08580433008106425</v>
       </c>
       <c r="F8">
-        <v>0.390313416637774</v>
+        <v>0.3709242403619086</v>
       </c>
       <c r="G8">
-        <v>0.2910035251919325</v>
+        <v>0.2640716172229816</v>
       </c>
       <c r="H8">
-        <v>6.773344140209581E-05</v>
+        <v>2.482823157623493E-05</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2729208239883505</v>
+        <v>0.2861747614005807</v>
       </c>
       <c r="K8">
-        <v>0.2978825934471629</v>
+        <v>0.274931374479781</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1506336963618295</v>
       </c>
       <c r="M8">
-        <v>0.8434596965566925</v>
+        <v>0.06585594551685503</v>
       </c>
       <c r="N8">
-        <v>0.2737320893015465</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8430446499925495</v>
       </c>
       <c r="P8">
-        <v>0.7606042472881995</v>
+        <v>0.2798867914804504</v>
       </c>
       <c r="Q8">
-        <v>1.136525348159708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7519983620372273</v>
+      </c>
+      <c r="S8">
+        <v>1.073334317509108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.331929609496399</v>
+        <v>1.275836967845152</v>
       </c>
       <c r="C9">
-        <v>0.1260725382933785</v>
+        <v>0.1262786941662171</v>
       </c>
       <c r="D9">
-        <v>0.09885535873286244</v>
+        <v>0.1033147034261646</v>
       </c>
       <c r="E9">
-        <v>0.1073826453735904</v>
+        <v>0.1013627581037966</v>
       </c>
       <c r="F9">
-        <v>0.4401528475672336</v>
+        <v>0.4138632157601165</v>
       </c>
       <c r="G9">
-        <v>0.3187786389037299</v>
+        <v>0.2873942225172144</v>
       </c>
       <c r="H9">
-        <v>0.0003671359343342395</v>
+        <v>0.0004179837073370329</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2763964745927154</v>
+        <v>0.2886045450977974</v>
       </c>
       <c r="K9">
-        <v>0.3006667719084035</v>
+        <v>0.2733267871603502</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1402881698447054</v>
       </c>
       <c r="M9">
-        <v>1.118837401809998</v>
+        <v>0.07461785092930739</v>
       </c>
       <c r="N9">
-        <v>0.3548525665598135</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.117369046127692</v>
       </c>
       <c r="P9">
-        <v>0.7025441534458032</v>
+        <v>0.3621056703955361</v>
       </c>
       <c r="Q9">
-        <v>1.203307052302478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7030948302106594</v>
+      </c>
+      <c r="S9">
+        <v>1.121680725063996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.569238813422146</v>
+        <v>1.494561262604208</v>
       </c>
       <c r="C10">
-        <v>0.1338894525197105</v>
+        <v>0.1384445264172669</v>
       </c>
       <c r="D10">
-        <v>0.1157702481401373</v>
+        <v>0.1223224623775394</v>
       </c>
       <c r="E10">
-        <v>0.1149436707895433</v>
+        <v>0.1079368784742272</v>
       </c>
       <c r="F10">
-        <v>0.4753301541599413</v>
+        <v>0.4406255472084553</v>
       </c>
       <c r="G10">
-        <v>0.3374641678550816</v>
+        <v>0.3171440417911171</v>
       </c>
       <c r="H10">
-        <v>0.001542094179988407</v>
+        <v>0.001528664306122529</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2784175494041179</v>
+        <v>0.2719396673568752</v>
       </c>
       <c r="K10">
-        <v>0.3010266484787323</v>
+        <v>0.2689840515260329</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1317577528475979</v>
       </c>
       <c r="M10">
-        <v>1.319822278299483</v>
+        <v>0.0819866562588345</v>
       </c>
       <c r="N10">
-        <v>0.3966889511351184</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.31352250417109</v>
       </c>
       <c r="P10">
-        <v>0.6647922784289584</v>
+        <v>0.4042074790356196</v>
       </c>
       <c r="Q10">
-        <v>1.247570889698636</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6734742669398202</v>
+      </c>
+      <c r="S10">
+        <v>1.142551659118553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.593507969329011</v>
+        <v>1.515725462845666</v>
       </c>
       <c r="C11">
-        <v>0.1521245950387993</v>
+        <v>0.1584967741026162</v>
       </c>
       <c r="D11">
-        <v>0.1311230357228936</v>
+        <v>0.1395470944245716</v>
       </c>
       <c r="E11">
-        <v>0.07925744083836861</v>
+        <v>0.07419801581612262</v>
       </c>
       <c r="F11">
-        <v>0.4528798884432632</v>
+        <v>0.4132656902028273</v>
       </c>
       <c r="G11">
-        <v>0.3095820033573631</v>
+        <v>0.3213594094300447</v>
       </c>
       <c r="H11">
-        <v>0.02000735376330809</v>
+        <v>0.0199539802347779</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.261090485024404</v>
+        <v>0.2266273370237712</v>
       </c>
       <c r="K11">
-        <v>0.2706253717994223</v>
+        <v>0.2393444567659628</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1185900151058874</v>
       </c>
       <c r="M11">
-        <v>1.401784477063103</v>
+        <v>0.07403961550334515</v>
       </c>
       <c r="N11">
-        <v>0.27568508932697</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.386359642102178</v>
       </c>
       <c r="P11">
-        <v>0.6646914642534192</v>
+        <v>0.2809336824327886</v>
       </c>
       <c r="Q11">
-        <v>1.152336336466135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.6829700899667515</v>
+      </c>
+      <c r="S11">
+        <v>1.035984439670415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.562960805081758</v>
+        <v>1.488103917026422</v>
       </c>
       <c r="C12">
-        <v>0.1686222968009616</v>
+        <v>0.1754110116430354</v>
       </c>
       <c r="D12">
-        <v>0.1409560813397661</v>
+        <v>0.150127575663376</v>
       </c>
       <c r="E12">
-        <v>0.05623191431826413</v>
+        <v>0.05263975291567036</v>
       </c>
       <c r="F12">
-        <v>0.4263642287916483</v>
+        <v>0.3866779619182523</v>
       </c>
       <c r="G12">
-        <v>0.2826191224225667</v>
+        <v>0.3091166063596518</v>
       </c>
       <c r="H12">
-        <v>0.05849742703016858</v>
+        <v>0.05843979248609799</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2461385668255573</v>
+        <v>0.2053562253725936</v>
       </c>
       <c r="K12">
-        <v>0.246091368948484</v>
+        <v>0.2175931553087587</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1104129143723096</v>
       </c>
       <c r="M12">
-        <v>1.428372645815699</v>
+        <v>0.066276261263706</v>
       </c>
       <c r="N12">
-        <v>0.1846257483784655</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.408592282378862</v>
       </c>
       <c r="P12">
-        <v>0.6766466124575743</v>
+        <v>0.1883446328554328</v>
       </c>
       <c r="Q12">
-        <v>1.063917745901009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7008208424877012</v>
+      </c>
+      <c r="S12">
+        <v>0.9500282128996957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.488692222477283</v>
+        <v>1.422484317036805</v>
       </c>
       <c r="C13">
-        <v>0.1844675844355237</v>
+        <v>0.191198852049439</v>
       </c>
       <c r="D13">
-        <v>0.1470063076537969</v>
+        <v>0.1556756192995579</v>
       </c>
       <c r="E13">
-        <v>0.04156045692916965</v>
+        <v>0.03917488372289668</v>
       </c>
       <c r="F13">
-        <v>0.3950590328805959</v>
+        <v>0.3600725556427804</v>
       </c>
       <c r="G13">
-        <v>0.2546970467903407</v>
+        <v>0.2778524120427335</v>
       </c>
       <c r="H13">
-        <v>0.1139768757964248</v>
+        <v>0.1139403082531345</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2320615118865561</v>
+        <v>0.2001462787997035</v>
       </c>
       <c r="K13">
-        <v>0.2245343951013758</v>
+        <v>0.2006723571874645</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1050523586269083</v>
       </c>
       <c r="M13">
-        <v>1.413632925745532</v>
+        <v>0.05861662770670684</v>
       </c>
       <c r="N13">
-        <v>0.1116152875725618</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.39478382372252</v>
       </c>
       <c r="P13">
-        <v>0.6976696233810245</v>
+        <v>0.1142680576433364</v>
       </c>
       <c r="Q13">
-        <v>0.9752180063015174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7233960795181673</v>
+      </c>
+      <c r="S13">
+        <v>0.8769046259684217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.417302274305456</v>
+        <v>1.359536893249725</v>
       </c>
       <c r="C14">
-        <v>0.1954481878088501</v>
+        <v>0.2019587561368041</v>
       </c>
       <c r="D14">
-        <v>0.1495261662576439</v>
+        <v>0.1572554629142502</v>
       </c>
       <c r="E14">
-        <v>0.03625063780223514</v>
+        <v>0.03460725355082805</v>
       </c>
       <c r="F14">
-        <v>0.3711732486998969</v>
+        <v>0.3413373652982159</v>
       </c>
       <c r="G14">
-        <v>0.2349643868628775</v>
+        <v>0.2489712990784057</v>
       </c>
       <c r="H14">
-        <v>0.163113320968975</v>
+        <v>0.1630980419768377</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2226997897037961</v>
+        <v>0.2022421026474461</v>
       </c>
       <c r="K14">
-        <v>0.2110594811586246</v>
+        <v>0.1909640744631176</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.102379237759898</v>
       </c>
       <c r="M14">
-        <v>1.38462693897938</v>
+        <v>0.05346996566789386</v>
       </c>
       <c r="N14">
-        <v>0.07172017693235233</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.36873695266712</v>
       </c>
       <c r="P14">
-        <v>0.7166624820688696</v>
+        <v>0.07379349704086735</v>
       </c>
       <c r="Q14">
-        <v>0.9137254699772086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7410370033018836</v>
+      </c>
+      <c r="S14">
+        <v>0.8310633766949991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.390842189771575</v>
+        <v>1.336203116481215</v>
       </c>
       <c r="C15">
-        <v>0.1975731194781076</v>
+        <v>0.2040092345348512</v>
       </c>
       <c r="D15">
-        <v>0.1492577890489173</v>
+        <v>0.1565081328962634</v>
       </c>
       <c r="E15">
-        <v>0.03560804707270132</v>
+        <v>0.03414158432097203</v>
       </c>
       <c r="F15">
-        <v>0.3643823728684481</v>
+        <v>0.3366057444256754</v>
       </c>
       <c r="G15">
-        <v>0.2299102775879192</v>
+        <v>0.2389823422166728</v>
       </c>
       <c r="H15">
-        <v>0.1755333380150006</v>
+        <v>0.175526755507434</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2206010198274271</v>
+        <v>0.2053100291907093</v>
       </c>
       <c r="K15">
-        <v>0.2082651505744764</v>
+        <v>0.1893383521427392</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1021267352596524</v>
       </c>
       <c r="M15">
-        <v>1.368774547338518</v>
+        <v>0.05222866954978223</v>
       </c>
       <c r="N15">
-        <v>0.06335524260945036</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.354591737018325</v>
       </c>
       <c r="P15">
-        <v>0.7225564640562965</v>
+        <v>0.06533055126054421</v>
       </c>
       <c r="Q15">
-        <v>0.8985843472059969</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7455942982706247</v>
+      </c>
+      <c r="S15">
+        <v>0.8218023339181428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.305588183348902</v>
+        <v>1.260401123925362</v>
       </c>
       <c r="C16">
-        <v>0.1902745180478149</v>
+        <v>0.1963844695652455</v>
       </c>
       <c r="D16">
-        <v>0.1404886616232233</v>
+        <v>0.1456877573111939</v>
       </c>
       <c r="E16">
-        <v>0.03565542549768197</v>
+        <v>0.0342391708685621</v>
       </c>
       <c r="F16">
-        <v>0.3555419582767669</v>
+        <v>0.3346890996389718</v>
       </c>
       <c r="G16">
-        <v>0.2274913084936401</v>
+        <v>0.2143763030156478</v>
       </c>
       <c r="H16">
-        <v>0.1623505719706202</v>
+        <v>0.1623716686311809</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2224426114964899</v>
+        <v>0.2296613482928223</v>
       </c>
       <c r="K16">
-        <v>0.2123372782085227</v>
+        <v>0.1957976821010021</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.105924140610675</v>
       </c>
       <c r="M16">
-        <v>1.285238280184871</v>
+        <v>0.05199847356751519</v>
       </c>
       <c r="N16">
-        <v>0.06236832409754101</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.27916810185468</v>
       </c>
       <c r="P16">
-        <v>0.7319342032376213</v>
+        <v>0.064682701438322</v>
       </c>
       <c r="Q16">
-        <v>0.8971383712260916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.746965197332635</v>
+      </c>
+      <c r="S16">
+        <v>0.8384975092083806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.277971506483425</v>
+        <v>1.235020641553035</v>
       </c>
       <c r="C17">
-        <v>0.1787578009484605</v>
+        <v>0.1843680265921392</v>
       </c>
       <c r="D17">
-        <v>0.1324470513923472</v>
+        <v>0.1368396273135772</v>
       </c>
       <c r="E17">
-        <v>0.0376957040560808</v>
+        <v>0.03589936897257173</v>
       </c>
       <c r="F17">
-        <v>0.3615119239721878</v>
+        <v>0.3426493398003743</v>
       </c>
       <c r="G17">
-        <v>0.2361155598354898</v>
+        <v>0.2132437666166922</v>
       </c>
       <c r="H17">
-        <v>0.1243456734043775</v>
+        <v>0.1243719386853286</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.228864787042582</v>
+        <v>0.2463380582512897</v>
       </c>
       <c r="K17">
-        <v>0.2225711359534337</v>
+        <v>0.2058523216776287</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1105520789080217</v>
       </c>
       <c r="M17">
-        <v>1.236703412127355</v>
+        <v>0.05431547741312137</v>
       </c>
       <c r="N17">
-        <v>0.08064498964535716</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.23414972198708</v>
       </c>
       <c r="P17">
-        <v>0.7292540840737587</v>
+        <v>0.08354023087527196</v>
       </c>
       <c r="Q17">
-        <v>0.9287658955727238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7400983993159898</v>
+      </c>
+      <c r="S17">
+        <v>0.8745294546101263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.296609332011911</v>
+        <v>1.250895487963049</v>
       </c>
       <c r="C18">
-        <v>0.1635200475910352</v>
+        <v>0.1686259055962012</v>
       </c>
       <c r="D18">
-        <v>0.1242774987149318</v>
+        <v>0.1285126534746723</v>
       </c>
       <c r="E18">
-        <v>0.04595690980379441</v>
+        <v>0.04326807752400796</v>
       </c>
       <c r="F18">
-        <v>0.3809097717649053</v>
+        <v>0.361198422544895</v>
       </c>
       <c r="G18">
-        <v>0.2555503351213417</v>
+        <v>0.2268502442238045</v>
       </c>
       <c r="H18">
-        <v>0.07149059618551945</v>
+        <v>0.07151919137702833</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2400452760142926</v>
+        <v>0.2613466197986298</v>
       </c>
       <c r="K18">
-        <v>0.2399244702658763</v>
+        <v>0.22118245283216</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1168716230151841</v>
       </c>
       <c r="M18">
-        <v>1.212599798854342</v>
+        <v>0.05929708606613637</v>
       </c>
       <c r="N18">
-        <v>0.1275981555115706</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.211599836897022</v>
       </c>
       <c r="P18">
-        <v>0.7176351338675673</v>
+        <v>0.1314870738774516</v>
       </c>
       <c r="Q18">
-        <v>0.9933278784750996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7259810460004132</v>
+      </c>
+      <c r="S18">
+        <v>0.9353496947946951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.351369565086657</v>
+        <v>1.299339306433467</v>
       </c>
       <c r="C19">
-        <v>0.1480834264685242</v>
+        <v>0.1525827071315859</v>
       </c>
       <c r="D19">
-        <v>0.1168043101588125</v>
+        <v>0.1212568584464009</v>
       </c>
       <c r="E19">
-        <v>0.06503905051290992</v>
+        <v>0.06095334601550562</v>
       </c>
       <c r="F19">
-        <v>0.410059196399942</v>
+        <v>0.3876437164083768</v>
       </c>
       <c r="G19">
-        <v>0.2830422175695233</v>
+        <v>0.2501298828266059</v>
       </c>
       <c r="H19">
-        <v>0.02643454845030391</v>
+        <v>0.02646832941331922</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2545148334566818</v>
+        <v>0.2758210533473644</v>
       </c>
       <c r="K19">
-        <v>0.2628956310195925</v>
+        <v>0.240738919811605</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1244563906506819</v>
       </c>
       <c r="M19">
-        <v>1.209826041272578</v>
+        <v>0.06648487368759248</v>
       </c>
       <c r="N19">
-        <v>0.2095312955694908</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.209324686174824</v>
       </c>
       <c r="P19">
-        <v>0.7021256120285599</v>
+        <v>0.2148113294335445</v>
       </c>
       <c r="Q19">
-        <v>1.081906866797681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.708694240324327</v>
+      </c>
+      <c r="S19">
+        <v>1.014692840810568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.5065258242239</v>
+        <v>1.438285003343367</v>
       </c>
       <c r="C20">
-        <v>0.1318942033271711</v>
+        <v>0.1357320226951799</v>
       </c>
       <c r="D20">
-        <v>0.1113652548399671</v>
+        <v>0.1169552255049808</v>
       </c>
       <c r="E20">
-        <v>0.1127335951523953</v>
+        <v>0.1058897867957356</v>
       </c>
       <c r="F20">
-        <v>0.4656811108795154</v>
+        <v>0.4352905065193227</v>
       </c>
       <c r="G20">
-        <v>0.3321868433855144</v>
+        <v>0.3004079621477018</v>
       </c>
       <c r="H20">
-        <v>0.001153836509170336</v>
+        <v>0.001171787947211733</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.277678379620987</v>
+        <v>0.2868104089121246</v>
       </c>
       <c r="K20">
-        <v>0.3006307297909672</v>
+        <v>0.2708736448624158</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1342281661406304</v>
       </c>
       <c r="M20">
-        <v>1.267015129810858</v>
+        <v>0.08022933441532132</v>
       </c>
       <c r="N20">
-        <v>0.3849557007597326</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.264380850782402</v>
       </c>
       <c r="P20">
-        <v>0.6744942223009147</v>
+        <v>0.3926017763090073</v>
       </c>
       <c r="Q20">
-        <v>1.234727312140862</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.680379057733969</v>
+      </c>
+      <c r="S20">
+        <v>1.142150013815979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.703568564426206</v>
+        <v>1.61131698383744</v>
       </c>
       <c r="C21">
-        <v>0.1356240480019864</v>
+        <v>0.14036122519164</v>
       </c>
       <c r="D21">
-        <v>0.1230256013980977</v>
+        <v>0.1324716361060041</v>
       </c>
       <c r="E21">
-        <v>0.12666976040639</v>
+        <v>0.1192509637238253</v>
       </c>
       <c r="F21">
-        <v>0.500774885664768</v>
+        <v>0.4520579475239899</v>
       </c>
       <c r="G21">
-        <v>0.3541516888024319</v>
+        <v>0.3785176268991108</v>
       </c>
       <c r="H21">
-        <v>0.002239572937519085</v>
+        <v>0.002121581228369473</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2831501529056908</v>
+        <v>0.2282195608384896</v>
       </c>
       <c r="K21">
-        <v>0.3073286533310409</v>
+        <v>0.2675306576701821</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1278784976293021</v>
       </c>
       <c r="M21">
-        <v>1.422901278148458</v>
+        <v>0.08645488169077709</v>
       </c>
       <c r="N21">
-        <v>0.4446887495626015</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.403838661232015</v>
       </c>
       <c r="P21">
-        <v>0.6444196209491757</v>
+        <v>0.451785465287827</v>
       </c>
       <c r="Q21">
-        <v>1.293066393286381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6596427530113154</v>
+      </c>
+      <c r="S21">
+        <v>1.146729325078311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.827634025661354</v>
+        <v>1.71924717003327</v>
       </c>
       <c r="C22">
-        <v>0.1387847102540007</v>
+        <v>0.1440664753154692</v>
       </c>
       <c r="D22">
-        <v>0.1310713689597094</v>
+        <v>0.1432748565226518</v>
       </c>
       <c r="E22">
-        <v>0.1331122540459475</v>
+        <v>0.125527327479233</v>
       </c>
       <c r="F22">
-        <v>0.5220882482496876</v>
+        <v>0.4605453106110247</v>
       </c>
       <c r="G22">
-        <v>0.3668798551560712</v>
+        <v>0.4362997133101914</v>
       </c>
       <c r="H22">
-        <v>0.003176490041839286</v>
+        <v>0.002930071365029763</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2859631609711357</v>
+        <v>0.1958758746565437</v>
       </c>
       <c r="K22">
-        <v>0.3102467080497604</v>
+        <v>0.263663669637225</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1233118970837257</v>
       </c>
       <c r="M22">
-        <v>1.524287093775484</v>
+        <v>0.09009750852271026</v>
       </c>
       <c r="N22">
-        <v>0.4746994945532919</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.493190502440342</v>
       </c>
       <c r="P22">
-        <v>0.6261916388317026</v>
+        <v>0.4812150313735515</v>
       </c>
       <c r="Q22">
-        <v>1.326139087307183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6483913939723109</v>
+      </c>
+      <c r="S22">
+        <v>1.142410014585067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.761401430254153</v>
+        <v>1.662743914910919</v>
       </c>
       <c r="C23">
-        <v>0.1370987761243967</v>
+        <v>0.1423870186168514</v>
       </c>
       <c r="D23">
-        <v>0.1267773608680898</v>
+        <v>0.1371925265811313</v>
       </c>
       <c r="E23">
-        <v>0.1296725475034215</v>
+        <v>0.1220848200679043</v>
       </c>
       <c r="F23">
-        <v>0.5106477245312817</v>
+        <v>0.4574959952758064</v>
       </c>
       <c r="G23">
-        <v>0.3600314037474419</v>
+        <v>0.3977188651977173</v>
       </c>
       <c r="H23">
-        <v>0.002658019626006869</v>
+        <v>0.00248863640621666</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2844294370266738</v>
+        <v>0.2173814668390577</v>
       </c>
       <c r="K23">
-        <v>0.3086489601598466</v>
+        <v>0.2664380510715887</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1259656070606034</v>
       </c>
       <c r="M23">
-        <v>1.470168652191063</v>
+        <v>0.08843612459574501</v>
       </c>
       <c r="N23">
-        <v>0.4586768062024191</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.447291889234492</v>
       </c>
       <c r="P23">
-        <v>0.6358553374765492</v>
+        <v>0.4656605261783824</v>
       </c>
       <c r="Q23">
-        <v>1.308303333646393</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6537562370221082</v>
+      </c>
+      <c r="S23">
+        <v>1.149114838294892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.510877234435668</v>
+        <v>1.442089588850564</v>
       </c>
       <c r="C24">
-        <v>0.1306898791741702</v>
+        <v>0.1343484417173073</v>
       </c>
       <c r="D24">
-        <v>0.110507926954412</v>
+        <v>0.1160870193972698</v>
       </c>
       <c r="E24">
-        <v>0.1166683971611953</v>
+        <v>0.1096281035790199</v>
       </c>
       <c r="F24">
-        <v>0.4687057707732123</v>
+        <v>0.4381082157346583</v>
       </c>
       <c r="G24">
-        <v>0.3352679754023029</v>
+        <v>0.3026980956639989</v>
       </c>
       <c r="H24">
-        <v>0.001085677535488494</v>
+        <v>0.001103707803065013</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.279314981725129</v>
+        <v>0.2888432401261198</v>
       </c>
       <c r="K24">
-        <v>0.3034613075623902</v>
+        <v>0.273328872294794</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1352189441675833</v>
       </c>
       <c r="M24">
-        <v>1.265321619415801</v>
+        <v>0.08108048222515052</v>
       </c>
       <c r="N24">
-        <v>0.3980989740078371</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.262835139055397</v>
       </c>
       <c r="P24">
-        <v>0.6738542259806515</v>
+        <v>0.4059326449784777</v>
       </c>
       <c r="Q24">
-        <v>1.244683859512676</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.6793498218958298</v>
+      </c>
+      <c r="S24">
+        <v>1.151300021526737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.241080345143246</v>
+        <v>1.191731489507191</v>
       </c>
       <c r="C25">
-        <v>0.123712159234266</v>
+        <v>0.1223264550603105</v>
       </c>
       <c r="D25">
-        <v>0.09292736167379445</v>
+        <v>0.09669843548217472</v>
       </c>
       <c r="E25">
-        <v>0.1026679361515548</v>
+        <v>0.09712233664812331</v>
       </c>
       <c r="F25">
-        <v>0.4261547152151977</v>
+        <v>0.4026340601081912</v>
       </c>
       <c r="G25">
-        <v>0.3108297452204951</v>
+        <v>0.2773239503138996</v>
       </c>
       <c r="H25">
-        <v>0.0001432344672538388</v>
+        <v>0.0001905745642487577</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2751787249681712</v>
+        <v>0.2923042288258912</v>
       </c>
       <c r="K25">
-        <v>0.2995734974006297</v>
+        <v>0.2739063192625757</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1431211280738616</v>
       </c>
       <c r="M25">
-        <v>1.04440735744231</v>
+        <v>0.07189869167201657</v>
       </c>
       <c r="N25">
-        <v>0.3329031601372634</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.044181828885201</v>
       </c>
       <c r="P25">
-        <v>0.7176659492466015</v>
+        <v>0.3399351766373542</v>
       </c>
       <c r="Q25">
-        <v>1.183743615072274</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7155222041285576</v>
+      </c>
+      <c r="S25">
+        <v>1.109831644146425</v>
       </c>
     </row>
   </sheetData>
